--- a/data/trans_orig/P36A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80630322-D4E1-47B0-8C73-AB41E5709C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDEA394C-FE91-4816-BF60-227B28337FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9748589A-FA75-4B1B-85D5-1A2D653E19CA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EF162735-5A2A-418A-A7E5-2D4B6454D3AB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="567">
   <si>
     <t>Población según la cantidad de agua que consumen al día en 2012 (Tasa respuesta: 98,62%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>13,11%</t>
   </si>
   <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
   </si>
   <si>
     <t>7,54%</t>
@@ -88,1672 +88,1657 @@
     <t>6,15%</t>
   </si>
   <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>De 1 litro y medio a 2 litros</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>De 1 litro a litro y medio</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>De medio a 1 litro</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>Menos de medio litro</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>No suelo beber agua</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
     <t>9,24%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>De 1 litro y medio a 2 litros</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>De 1 litro a litro y medio</t>
-  </si>
-  <si>
-    <t>30,71%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la cantidad de agua que consumen al día en 2015 (Tasa respuesta: 98,13%)</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>Población según la cantidad de agua que consumen al día en 2023 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
   </si>
   <si>
     <t>27,51%</t>
   </si>
   <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>De medio a 1 litro</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>Menos de medio litro</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>No suelo beber agua</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
   </si>
   <si>
     <t>6,69%</t>
   </si>
   <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la cantidad de agua que consumen al día en 2015 (Tasa respuesta: 98,13%)</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>9,93%</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>Población según la cantidad de agua que consumen al día en 2023 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
   </si>
   <si>
     <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
   </si>
 </sst>
 </file>
@@ -2165,7 +2150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53E20D1-065C-41CF-811A-925C59603076}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F03F08-3A80-4C10-A7F9-D343CDDA8BAB}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2966,7 +2951,7 @@
         <v>1608</v>
       </c>
       <c r="I17" s="7">
-        <v>1729251</v>
+        <v>1729252</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>66</v>
@@ -3088,13 +3073,13 @@
         <v>262380</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3094,13 @@
         <v>158455</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>130</v>
@@ -3124,13 +3109,13 @@
         <v>145215</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>279</v>
@@ -3139,13 +3124,13 @@
         <v>303670</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3145,13 @@
         <v>79992</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>85</v>
@@ -3175,13 +3160,13 @@
         <v>93996</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>154</v>
@@ -3190,13 +3175,13 @@
         <v>173988</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3196,13 @@
         <v>15926</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -3226,13 +3211,13 @@
         <v>30365</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
@@ -3241,13 +3226,13 @@
         <v>46291</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,7 +3253,7 @@
         <v>62</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3283,7 +3268,7 @@
         <v>62</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3298,7 +3283,7 @@
         <v>62</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3351,13 @@
         <v>536356</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>351</v>
@@ -3381,13 +3366,13 @@
         <v>371979</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>847</v>
@@ -3396,13 +3381,13 @@
         <v>908335</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,13 +3402,13 @@
         <v>863362</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>728</v>
@@ -3432,28 +3417,28 @@
         <v>791174</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>1532</v>
       </c>
       <c r="N26" s="7">
-        <v>1654537</v>
+        <v>1654536</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,13 +3453,13 @@
         <v>1109341</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H27" s="7">
         <v>1036</v>
@@ -3483,13 +3468,13 @@
         <v>1117017</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M27" s="7">
         <v>2086</v>
@@ -3498,13 +3483,13 @@
         <v>2226358</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,13 +3504,13 @@
         <v>687479</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="H28" s="7">
         <v>868</v>
@@ -3534,13 +3519,13 @@
         <v>936788</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M28" s="7">
         <v>1503</v>
@@ -3549,13 +3534,13 @@
         <v>1624267</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,13 +3555,13 @@
         <v>176521</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>267</v>
@@ -3585,28 +3570,28 @@
         <v>290641</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>438</v>
       </c>
       <c r="N29" s="7">
-        <v>467163</v>
+        <v>467162</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,7 +3642,7 @@
         <v>62</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,7 +3684,7 @@
         <v>6406</v>
       </c>
       <c r="N31" s="7">
-        <v>6880660</v>
+        <v>6880659</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>66</v>
@@ -3713,7 +3698,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3732,7 +3717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88260287-9CC5-48F8-B2B1-4A8D53F591A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D231853-BE73-4C36-AE44-BDAD6EC112EC}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3749,7 +3734,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3856,13 +3841,13 @@
         <v>109202</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H4" s="7">
         <v>87</v>
@@ -3871,13 +3856,13 @@
         <v>92979</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M4" s="7">
         <v>194</v>
@@ -3886,13 +3871,13 @@
         <v>202181</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,13 +3892,13 @@
         <v>167404</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H5" s="7">
         <v>208</v>
@@ -3922,13 +3907,13 @@
         <v>230763</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M5" s="7">
         <v>376</v>
@@ -3937,13 +3922,13 @@
         <v>398167</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>146</v>
+        <v>225</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,13 +3943,13 @@
         <v>225181</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H6" s="7">
         <v>300</v>
@@ -3973,13 +3958,13 @@
         <v>334382</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M6" s="7">
         <v>529</v>
@@ -3988,13 +3973,13 @@
         <v>559563</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,13 +3994,13 @@
         <v>175580</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>239</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
         <v>221</v>
@@ -4024,13 +4009,13 @@
         <v>250169</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M7" s="7">
         <v>399</v>
@@ -4039,13 +4024,13 @@
         <v>425750</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>243</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,13 +4045,13 @@
         <v>57910</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H8" s="7">
         <v>61</v>
@@ -4075,13 +4060,13 @@
         <v>70275</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M8" s="7">
         <v>122</v>
@@ -4090,13 +4075,13 @@
         <v>128185</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,7 +4102,7 @@
         <v>62</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4132,7 +4117,7 @@
         <v>62</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4215,13 +4200,13 @@
         <v>343846</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H11" s="7">
         <v>237</v>
@@ -4230,13 +4215,13 @@
         <v>246233</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M11" s="7">
         <v>554</v>
@@ -4245,13 +4230,13 @@
         <v>590079</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>264</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>265</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4251,13 @@
         <v>567530</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H12" s="7">
         <v>528</v>
@@ -4281,13 +4266,13 @@
         <v>552016</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M12" s="7">
         <v>1068</v>
@@ -4296,13 +4281,13 @@
         <v>1119546</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4302,13 @@
         <v>741464</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>39</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H13" s="7">
         <v>703</v>
@@ -4332,13 +4317,13 @@
         <v>730190</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M13" s="7">
         <v>1404</v>
@@ -4347,13 +4332,13 @@
         <v>1471653</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,13 +4353,13 @@
         <v>311647</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H14" s="7">
         <v>326</v>
@@ -4383,13 +4368,13 @@
         <v>335570</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M14" s="7">
         <v>617</v>
@@ -4398,13 +4383,13 @@
         <v>647216</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,13 +4404,13 @@
         <v>63282</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H15" s="7">
         <v>82</v>
@@ -4434,13 +4419,13 @@
         <v>90705</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M15" s="7">
         <v>141</v>
@@ -4449,13 +4434,13 @@
         <v>153987</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,7 +4491,7 @@
         <v>62</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,13 +4559,13 @@
         <v>107478</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>304</v>
+        <v>221</v>
       </c>
       <c r="H18" s="7">
         <v>76</v>
@@ -4589,13 +4574,13 @@
         <v>80754</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>307</v>
+        <v>27</v>
       </c>
       <c r="M18" s="7">
         <v>170</v>
@@ -4604,13 +4589,13 @@
         <v>188232</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4610,13 @@
         <v>176601</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>140</v>
+        <v>306</v>
       </c>
       <c r="H19" s="7">
         <v>170</v>
@@ -4640,13 +4625,13 @@
         <v>176676</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>314</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>331</v>
@@ -4655,13 +4640,13 @@
         <v>353277</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4661,13 @@
         <v>172746</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>177</v>
@@ -4691,13 +4676,13 @@
         <v>183123</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>342</v>
@@ -4706,13 +4691,13 @@
         <v>355868</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4712,13 @@
         <v>75137</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="H21" s="7">
         <v>81</v>
@@ -4742,13 +4727,13 @@
         <v>86047</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M21" s="7">
         <v>147</v>
@@ -4757,13 +4742,13 @@
         <v>161184</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4763,13 @@
         <v>10105</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -4793,13 +4778,13 @@
         <v>13956</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -4808,13 +4793,13 @@
         <v>24061</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,7 +4820,7 @@
         <v>62</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4850,7 +4835,7 @@
         <v>62</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -4865,7 +4850,7 @@
         <v>62</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4918,13 @@
         <v>560526</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H25" s="7">
         <v>400</v>
@@ -4948,13 +4933,13 @@
         <v>419966</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="M25" s="7">
         <v>918</v>
@@ -4963,13 +4948,13 @@
         <v>980492</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>284</v>
+        <v>346</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,13 +4969,13 @@
         <v>911535</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="H26" s="7">
         <v>906</v>
@@ -4999,13 +4984,13 @@
         <v>959455</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="M26" s="7">
         <v>1775</v>
@@ -5014,13 +4999,13 @@
         <v>1870990</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,13 +5020,13 @@
         <v>1139390</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>39</v>
+        <v>357</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="H27" s="7">
         <v>1180</v>
@@ -5050,13 +5035,13 @@
         <v>1247695</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M27" s="7">
         <v>2275</v>
@@ -5065,13 +5050,13 @@
         <v>2387085</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>371</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,13 +5071,13 @@
         <v>562364</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>148</v>
+        <v>365</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H28" s="7">
         <v>628</v>
@@ -5101,13 +5086,13 @@
         <v>671786</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="M28" s="7">
         <v>1163</v>
@@ -5116,13 +5101,13 @@
         <v>1234150</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,13 +5122,13 @@
         <v>131296</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H29" s="7">
         <v>157</v>
@@ -5152,13 +5137,13 @@
         <v>174937</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>106</v>
+        <v>377</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="M29" s="7">
         <v>287</v>
@@ -5167,13 +5152,13 @@
         <v>306233</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,7 +5209,7 @@
         <v>62</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,7 +5251,7 @@
         <v>6418</v>
       </c>
       <c r="N31" s="7">
-        <v>6778949</v>
+        <v>6778950</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>66</v>
@@ -5280,7 +5265,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -5299,7 +5284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3C2617-B996-4BD3-A789-92CF7E596D5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B3DC64-9EAB-45DC-BE28-F441259A850E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5316,7 +5301,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5423,13 +5408,13 @@
         <v>120762</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H4" s="7">
         <v>233</v>
@@ -5441,10 +5426,10 @@
         <v>76</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>73</v>
+        <v>387</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M4" s="7">
         <v>384</v>
@@ -5453,13 +5438,13 @@
         <v>251883</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,13 +5459,13 @@
         <v>161172</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H5" s="7">
         <v>493</v>
@@ -5489,13 +5474,13 @@
         <v>280129</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M5" s="7">
         <v>696</v>
@@ -5504,13 +5489,13 @@
         <v>441300</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>89</v>
+        <v>399</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,13 +5510,13 @@
         <v>161342</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>270</v>
+        <v>401</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="H6" s="7">
         <v>433</v>
@@ -5540,13 +5525,13 @@
         <v>258182</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M6" s="7">
         <v>639</v>
@@ -5555,13 +5540,13 @@
         <v>419524</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,13 +5561,13 @@
         <v>69935</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="H7" s="7">
         <v>181</v>
@@ -5591,13 +5576,13 @@
         <v>119885</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M7" s="7">
         <v>275</v>
@@ -5630,10 +5615,10 @@
         <v>419</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -5642,13 +5627,13 @@
         <v>29332</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M8" s="7">
         <v>75</v>
@@ -5657,13 +5642,13 @@
         <v>47242</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,13 +5663,13 @@
         <v>2972</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -5693,10 +5678,10 @@
         <v>3960</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>432</v>
@@ -5711,10 +5696,10 @@
         <v>433</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,10 +5785,10 @@
         <v>438</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>439</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M11" s="7">
         <v>1184</v>
@@ -5812,13 +5797,13 @@
         <v>1125859</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,7 +5818,7 @@
         <v>779110</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>442</v>
+        <v>359</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>443</v>
@@ -5896,7 +5881,7 @@
         <v>801</v>
       </c>
       <c r="I13" s="7">
-        <v>696418</v>
+        <v>696419</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>454</v>
@@ -5947,16 +5932,16 @@
         <v>353</v>
       </c>
       <c r="I14" s="7">
-        <v>249588</v>
+        <v>249589</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>463</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M14" s="7">
         <v>490</v>
@@ -5965,13 +5950,13 @@
         <v>391512</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,13 +5971,13 @@
         <v>30917</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H15" s="7">
         <v>87</v>
@@ -6001,13 +5986,13 @@
         <v>62736</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M15" s="7">
         <v>121</v>
@@ -6016,13 +6001,13 @@
         <v>93653</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,13 +6022,13 @@
         <v>4141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>115</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -6052,13 +6037,13 @@
         <v>4325</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -6067,7 +6052,7 @@
         <v>8467</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>113</v>
@@ -6100,7 +6085,7 @@
         <v>2911</v>
       </c>
       <c r="I17" s="7">
-        <v>2240433</v>
+        <v>2240434</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>66</v>
@@ -6159,10 +6144,10 @@
         <v>484</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="M18" s="7">
         <v>420</v>
@@ -6171,13 +6156,13 @@
         <v>373637</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,13 +6177,13 @@
         <v>255386</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="H19" s="7">
         <v>353</v>
@@ -6207,13 +6192,13 @@
         <v>248971</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="M19" s="7">
         <v>619</v>
@@ -6222,13 +6207,13 @@
         <v>504357</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6243,13 +6228,13 @@
         <v>160546</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="H20" s="7">
         <v>277</v>
@@ -6258,13 +6243,13 @@
         <v>187196</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="M20" s="7">
         <v>440</v>
@@ -6273,13 +6258,13 @@
         <v>347743</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6294,13 +6279,13 @@
         <v>44651</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="H21" s="7">
         <v>113</v>
@@ -6309,13 +6294,13 @@
         <v>83106</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>512</v>
+        <v>416</v>
       </c>
       <c r="M21" s="7">
         <v>162</v>
@@ -6324,13 +6309,13 @@
         <v>127757</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>514</v>
+        <v>213</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>515</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,13 +6330,13 @@
         <v>7660</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -6360,13 +6345,13 @@
         <v>18314</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>521</v>
+        <v>381</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -6375,13 +6360,13 @@
         <v>25974</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>423</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6381,13 @@
         <v>2684</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>114</v>
+        <v>520</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -6411,13 +6396,13 @@
         <v>2974</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>527</v>
+        <v>114</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -6426,13 +6411,13 @@
         <v>5657</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>530</v>
+        <v>431</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,13 +6485,13 @@
         <v>993134</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>534</v>
+        <v>134</v>
       </c>
       <c r="H25" s="7">
         <v>1086</v>
@@ -6515,13 +6500,13 @@
         <v>758244</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="M25" s="7">
         <v>1988</v>
@@ -6533,10 +6518,10 @@
         <v>451</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>272</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,13 +6536,13 @@
         <v>1195668</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>277</v>
+        <v>534</v>
       </c>
       <c r="H26" s="7">
         <v>1888</v>
@@ -6566,13 +6551,13 @@
         <v>1302666</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="M26" s="7">
         <v>3083</v>
@@ -6581,13 +6566,13 @@
         <v>2498334</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>539</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>371</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6602,13 +6587,13 @@
         <v>851004</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="H27" s="7">
         <v>1511</v>
@@ -6617,13 +6602,13 @@
         <v>1141796</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="M27" s="7">
         <v>2404</v>
@@ -6635,10 +6620,10 @@
         <v>41</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6653,13 +6638,13 @@
         <v>256509</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>216</v>
+        <v>548</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>507</v>
+        <v>549</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H28" s="7">
         <v>647</v>
@@ -6668,13 +6653,13 @@
         <v>452580</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>556</v>
+        <v>410</v>
       </c>
       <c r="M28" s="7">
         <v>927</v>
@@ -6683,13 +6668,13 @@
         <v>709089</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>248</v>
+        <v>553</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6704,13 +6689,13 @@
         <v>56486</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>525</v>
+        <v>556</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H29" s="7">
         <v>164</v>
@@ -6719,13 +6704,13 @@
         <v>110383</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>563</v>
+        <v>424</v>
       </c>
       <c r="M29" s="7">
         <v>231</v>
@@ -6734,13 +6719,13 @@
         <v>166869</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6755,13 +6740,13 @@
         <v>9797</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>568</v>
+        <v>64</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
@@ -6770,13 +6755,13 @@
         <v>11259</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>530</v>
+        <v>431</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>431</v>
+        <v>566</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
@@ -6785,13 +6770,13 @@
         <v>21055</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>571</v>
+        <v>340</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>479</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6847,7 +6832,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36A-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDEA394C-FE91-4816-BF60-227B28337FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8384CBDB-D6EB-4428-B845-572A8170F231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EF162735-5A2A-418A-A7E5-2D4B6454D3AB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C1BF05C0-9DD4-4056-BF0B-823A43326577}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="571">
   <si>
     <t>Población según la cantidad de agua que consumen al día en 2012 (Tasa respuesta: 98,62%)</t>
   </si>
@@ -76,1588 +76,1600 @@
     <t>13,11%</t>
   </si>
   <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>De 1 litro y medio a 2 litros</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>De 1 litro a litro y medio</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>De medio a 1 litro</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>Menos de medio litro</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>No suelo beber agua</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la cantidad de agua que consumen al día en 2016 (Tasa respuesta: 98,13%)</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
     <t>10,95%</t>
   </si>
   <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>De 1 litro y medio a 2 litros</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>De 1 litro a litro y medio</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>De medio a 1 litro</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>Menos de medio litro</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>No suelo beber agua</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>Población según la cantidad de agua que consumen al día en 2023 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
   </si>
   <si>
     <t>21,24%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
   </si>
   <si>
     <t>36,34%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la cantidad de agua que consumen al día en 2015 (Tasa respuesta: 98,13%)</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>Población según la cantidad de agua que consumen al día en 2023 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
   </si>
   <si>
     <t>25,31%</t>
@@ -2150,7 +2162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F03F08-3A80-4C10-A7F9-D343CDDA8BAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E863E4A-8F84-44CC-8E14-6BDF139F121F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3073,13 +3085,13 @@
         <v>262380</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,13 +3106,13 @@
         <v>158455</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>130</v>
@@ -3109,10 +3121,10 @@
         <v>145215</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>139</v>
@@ -3145,13 +3157,13 @@
         <v>79992</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>85</v>
@@ -3160,13 +3172,13 @@
         <v>93996</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>154</v>
@@ -3175,13 +3187,13 @@
         <v>173988</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,13 +3208,13 @@
         <v>15926</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -3211,13 +3223,13 @@
         <v>30365</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
@@ -3226,13 +3238,13 @@
         <v>46291</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,7 +3265,7 @@
         <v>62</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3268,7 +3280,7 @@
         <v>62</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3283,7 +3295,7 @@
         <v>62</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,13 +3363,13 @@
         <v>536356</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H25" s="7">
         <v>351</v>
@@ -3366,13 +3378,13 @@
         <v>371979</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>847</v>
@@ -3381,13 +3393,13 @@
         <v>908335</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3414,13 @@
         <v>863362</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>728</v>
@@ -3417,28 +3429,28 @@
         <v>791174</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>1532</v>
       </c>
       <c r="N26" s="7">
-        <v>1654536</v>
+        <v>1654537</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,13 +3465,13 @@
         <v>1109341</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H27" s="7">
         <v>1036</v>
@@ -3468,13 +3480,13 @@
         <v>1117017</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M27" s="7">
         <v>2086</v>
@@ -3483,13 +3495,13 @@
         <v>2226358</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,13 +3516,13 @@
         <v>687479</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H28" s="7">
         <v>868</v>
@@ -3519,13 +3531,13 @@
         <v>936788</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M28" s="7">
         <v>1503</v>
@@ -3534,13 +3546,13 @@
         <v>1624267</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3567,13 @@
         <v>176521</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>267</v>
@@ -3570,19 +3582,19 @@
         <v>290641</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>54</v>
       </c>
       <c r="M29" s="7">
         <v>438</v>
       </c>
       <c r="N29" s="7">
-        <v>467162</v>
+        <v>467163</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>203</v>
@@ -3684,7 +3696,7 @@
         <v>6406</v>
       </c>
       <c r="N31" s="7">
-        <v>6880659</v>
+        <v>6880660</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>66</v>
@@ -3717,7 +3729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D231853-BE73-4C36-AE44-BDAD6EC112EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CAB778-4419-4A14-9CD3-AE0059EFBDCF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3991,7 +4003,7 @@
         <v>178</v>
       </c>
       <c r="D7" s="7">
-        <v>175580</v>
+        <v>175581</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>236</v>
@@ -4000,7 +4012,7 @@
         <v>237</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="H7" s="7">
         <v>221</v>
@@ -4009,13 +4021,13 @@
         <v>250169</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M7" s="7">
         <v>399</v>
@@ -4024,13 +4036,13 @@
         <v>425750</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,13 +4057,13 @@
         <v>57910</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H8" s="7">
         <v>61</v>
@@ -4060,13 +4072,13 @@
         <v>70275</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M8" s="7">
         <v>122</v>
@@ -4075,13 +4087,13 @@
         <v>128185</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,7 +4114,7 @@
         <v>62</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4117,7 +4129,7 @@
         <v>62</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4144,7 +4156,7 @@
         <v>743</v>
       </c>
       <c r="D10" s="7">
-        <v>735277</v>
+        <v>735278</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>66</v>
@@ -4200,13 +4212,13 @@
         <v>343846</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H11" s="7">
         <v>237</v>
@@ -4215,13 +4227,13 @@
         <v>246233</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M11" s="7">
         <v>554</v>
@@ -4230,13 +4242,13 @@
         <v>590079</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>96</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4251,13 +4263,13 @@
         <v>567530</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H12" s="7">
         <v>528</v>
@@ -4266,13 +4278,13 @@
         <v>552016</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M12" s="7">
         <v>1068</v>
@@ -4281,13 +4293,13 @@
         <v>1119546</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,13 +4314,13 @@
         <v>741464</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>39</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>703</v>
@@ -4317,13 +4329,13 @@
         <v>730190</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M13" s="7">
         <v>1404</v>
@@ -4332,13 +4344,13 @@
         <v>1471653</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,13 +4365,13 @@
         <v>311647</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H14" s="7">
         <v>326</v>
@@ -4368,13 +4380,13 @@
         <v>335570</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M14" s="7">
         <v>617</v>
@@ -4383,13 +4395,13 @@
         <v>647216</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4416,13 @@
         <v>63282</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H15" s="7">
         <v>82</v>
@@ -4419,13 +4431,13 @@
         <v>90705</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M15" s="7">
         <v>141</v>
@@ -4434,13 +4446,13 @@
         <v>153987</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,7 +4503,7 @@
         <v>62</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,13 +4571,13 @@
         <v>107478</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>221</v>
+        <v>302</v>
       </c>
       <c r="H18" s="7">
         <v>76</v>
@@ -4574,13 +4586,13 @@
         <v>80754</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>27</v>
+        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>170</v>
@@ -4589,13 +4601,13 @@
         <v>188232</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,13 +4622,13 @@
         <v>176601</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="H19" s="7">
         <v>170</v>
@@ -4625,13 +4637,13 @@
         <v>176676</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>312</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="M19" s="7">
         <v>331</v>
@@ -4640,13 +4652,13 @@
         <v>353277</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4673,13 @@
         <v>172746</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
         <v>177</v>
@@ -4676,28 +4688,28 @@
         <v>183123</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="M20" s="7">
         <v>342</v>
       </c>
       <c r="N20" s="7">
-        <v>355868</v>
+        <v>355869</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +4724,13 @@
         <v>75137</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H21" s="7">
         <v>81</v>
@@ -4727,13 +4739,13 @@
         <v>86047</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="M21" s="7">
         <v>147</v>
@@ -4742,13 +4754,13 @@
         <v>161184</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4763,13 +4775,13 @@
         <v>10105</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -4778,13 +4790,13 @@
         <v>13956</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -4793,13 +4805,13 @@
         <v>24061</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,7 +4832,7 @@
         <v>62</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4835,7 +4847,7 @@
         <v>62</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -4850,7 +4862,7 @@
         <v>62</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,7 +4904,7 @@
         <v>1014</v>
       </c>
       <c r="N24" s="7">
-        <v>1082622</v>
+        <v>1082623</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>66</v>
@@ -4918,13 +4930,13 @@
         <v>560526</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H25" s="7">
         <v>400</v>
@@ -4933,13 +4945,13 @@
         <v>419966</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="M25" s="7">
         <v>918</v>
@@ -4948,13 +4960,13 @@
         <v>980492</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,28 +4981,28 @@
         <v>911535</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="H26" s="7">
         <v>906</v>
       </c>
       <c r="I26" s="7">
-        <v>959455</v>
+        <v>959454</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>351</v>
+        <v>32</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="M26" s="7">
         <v>1775</v>
@@ -4999,13 +5011,13 @@
         <v>1870990</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,28 +5032,28 @@
         <v>1139390</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="H27" s="7">
         <v>1180</v>
       </c>
       <c r="I27" s="7">
-        <v>1247695</v>
+        <v>1247694</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="M27" s="7">
         <v>2275</v>
@@ -5050,13 +5062,13 @@
         <v>2387085</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>36</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5083,13 @@
         <v>562364</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>365</v>
+        <v>122</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="H28" s="7">
         <v>628</v>
@@ -5086,13 +5098,13 @@
         <v>671786</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="M28" s="7">
         <v>1163</v>
@@ -5101,13 +5113,13 @@
         <v>1234150</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,28 +5134,28 @@
         <v>131296</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>375</v>
+        <v>152</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H29" s="7">
         <v>157</v>
       </c>
       <c r="I29" s="7">
-        <v>174937</v>
+        <v>174936</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="M29" s="7">
         <v>287</v>
@@ -5152,13 +5164,13 @@
         <v>306233</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,7 +5248,7 @@
         <v>3271</v>
       </c>
       <c r="I31" s="7">
-        <v>3473838</v>
+        <v>3473837</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>66</v>
@@ -5284,7 +5296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B3DC64-9EAB-45DC-BE28-F441259A850E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163AA120-33FE-4845-A376-4D59E3022494}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5301,7 +5313,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5408,13 +5420,13 @@
         <v>120762</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>384</v>
+        <v>240</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H4" s="7">
         <v>233</v>
@@ -5423,13 +5435,13 @@
         <v>131121</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>76</v>
+        <v>391</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="M4" s="7">
         <v>384</v>
@@ -5438,13 +5450,13 @@
         <v>251883</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5471,13 @@
         <v>161172</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H5" s="7">
         <v>493</v>
@@ -5474,13 +5486,13 @@
         <v>280129</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="M5" s="7">
         <v>696</v>
@@ -5489,13 +5501,13 @@
         <v>441300</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,13 +5522,13 @@
         <v>161342</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="H6" s="7">
         <v>433</v>
@@ -5525,13 +5537,13 @@
         <v>258182</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="M6" s="7">
         <v>639</v>
@@ -5540,13 +5552,13 @@
         <v>419524</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>409</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,13 +5573,13 @@
         <v>69935</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H7" s="7">
         <v>181</v>
@@ -5576,13 +5588,13 @@
         <v>119885</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M7" s="7">
         <v>275</v>
@@ -5591,13 +5603,13 @@
         <v>189820</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5624,13 @@
         <v>17910</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -5627,13 +5639,13 @@
         <v>29332</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="M8" s="7">
         <v>75</v>
@@ -5642,13 +5654,13 @@
         <v>47242</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5675,13 @@
         <v>2972</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -5678,13 +5690,13 @@
         <v>3960</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -5693,13 +5705,13 @@
         <v>6932</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,13 +5779,13 @@
         <v>672060</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="H11" s="7">
         <v>622</v>
@@ -5782,13 +5794,13 @@
         <v>453799</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="M11" s="7">
         <v>1184</v>
@@ -5797,13 +5809,13 @@
         <v>1125859</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5830,13 @@
         <v>779110</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>359</v>
+        <v>447</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="H12" s="7">
         <v>1042</v>
@@ -5833,13 +5845,13 @@
         <v>773566</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="M12" s="7">
         <v>1768</v>
@@ -5848,13 +5860,13 @@
         <v>1552676</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>448</v>
+        <v>279</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,13 +5881,13 @@
         <v>529116</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>453</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>801</v>
@@ -5884,13 +5896,13 @@
         <v>696419</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="M13" s="7">
         <v>1325</v>
@@ -5899,13 +5911,13 @@
         <v>1225534</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,13 +5932,13 @@
         <v>141924</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>460</v>
+        <v>160</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H14" s="7">
         <v>353</v>
@@ -5935,13 +5947,13 @@
         <v>249589</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>463</v>
+        <v>260</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M14" s="7">
         <v>490</v>
@@ -5950,13 +5962,13 @@
         <v>391512</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5971,13 +5983,13 @@
         <v>30917</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H15" s="7">
         <v>87</v>
@@ -5986,13 +5998,13 @@
         <v>62736</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M15" s="7">
         <v>121</v>
@@ -6001,13 +6013,13 @@
         <v>93653</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,13 +6034,13 @@
         <v>4141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>115</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -6037,13 +6049,13 @@
         <v>4325</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -6052,13 +6064,13 @@
         <v>8467</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,13 +6138,13 @@
         <v>200313</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H18" s="7">
         <v>231</v>
@@ -6141,13 +6153,13 @@
         <v>173324</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>486</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M18" s="7">
         <v>420</v>
@@ -6156,13 +6168,13 @@
         <v>373637</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6189,13 @@
         <v>255386</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H19" s="7">
         <v>353</v>
@@ -6192,13 +6204,13 @@
         <v>248971</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M19" s="7">
         <v>619</v>
@@ -6207,13 +6219,13 @@
         <v>504357</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,13 +6240,13 @@
         <v>160546</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H20" s="7">
         <v>277</v>
@@ -6243,13 +6255,13 @@
         <v>187196</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M20" s="7">
         <v>440</v>
@@ -6258,13 +6270,13 @@
         <v>347743</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,13 +6291,13 @@
         <v>44651</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H21" s="7">
         <v>113</v>
@@ -6294,13 +6306,13 @@
         <v>83106</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M21" s="7">
         <v>162</v>
@@ -6309,13 +6321,13 @@
         <v>127757</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>213</v>
+        <v>512</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>322</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6342,13 @@
         <v>7660</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -6345,13 +6357,13 @@
         <v>18314</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -6360,13 +6372,13 @@
         <v>25974</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,13 +6393,13 @@
         <v>2684</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -6396,13 +6408,13 @@
         <v>2974</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>114</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -6411,13 +6423,13 @@
         <v>5657</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,13 +6497,13 @@
         <v>993134</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H25" s="7">
         <v>1086</v>
@@ -6500,13 +6512,13 @@
         <v>758244</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="M25" s="7">
         <v>1988</v>
@@ -6515,13 +6527,13 @@
         <v>1751379</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,13 +6548,13 @@
         <v>1195668</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="H26" s="7">
         <v>1888</v>
@@ -6551,13 +6563,13 @@
         <v>1302666</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="M26" s="7">
         <v>3083</v>
@@ -6566,13 +6578,13 @@
         <v>2498334</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>139</v>
+        <v>543</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6599,13 @@
         <v>851004</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H27" s="7">
         <v>1511</v>
@@ -6602,13 +6614,13 @@
         <v>1141796</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="M27" s="7">
         <v>2404</v>
@@ -6620,10 +6632,10 @@
         <v>41</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,13 +6650,13 @@
         <v>256509</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="H28" s="7">
         <v>647</v>
@@ -6653,13 +6665,13 @@
         <v>452580</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M28" s="7">
         <v>927</v>
@@ -6668,13 +6680,13 @@
         <v>709089</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6689,13 +6701,13 @@
         <v>56486</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H29" s="7">
         <v>164</v>
@@ -6704,13 +6716,13 @@
         <v>110383</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="M29" s="7">
         <v>231</v>
@@ -6719,13 +6731,13 @@
         <v>166869</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6740,13 +6752,13 @@
         <v>9797</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
@@ -6755,13 +6767,13 @@
         <v>11259</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
@@ -6770,13 +6782,13 @@
         <v>21055</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8384CBDB-D6EB-4428-B845-572A8170F231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15649880-4128-436E-95CE-03F122C78CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C1BF05C0-9DD4-4056-BF0B-823A43326577}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DD718288-12D5-4838-9631-52ED652963D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="572">
   <si>
     <t>Población según la cantidad de agua que consumen al día en 2012 (Tasa respuesta: 98,62%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>13,11%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
   </si>
   <si>
     <t>9,88%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
   </si>
   <si>
     <t>De 1 litro y medio a 2 litros</t>
@@ -106,28 +106,28 @@
     <t>19,59%</t>
   </si>
   <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
   </si>
   <si>
     <t>18,26%</t>
   </si>
   <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
   </si>
   <si>
     <t>De 1 litro a litro y medio</t>
@@ -136,1621 +136,1624 @@
     <t>30,71%</t>
   </si>
   <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>De medio a 1 litro</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>Menos de medio litro</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>No suelo beber agua</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la cantidad de agua que consumen al día en 2016 (Tasa respuesta: 98,13%)</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
     <t>27,62%</t>
   </si>
   <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>De medio a 1 litro</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>Menos de medio litro</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>No suelo beber agua</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>Población según la cantidad de agua que consumen al día en 2023 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
   </si>
   <si>
     <t>21,97%</t>
   </si>
   <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
   </si>
   <si>
     <t>25,11%</t>
   </si>
   <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la cantidad de agua que consumen al día en 2016 (Tasa respuesta: 98,13%)</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
   </si>
   <si>
     <t>11,02%</t>
   </si>
   <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>Población según la cantidad de agua que consumen al día en 2023 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>0,5%</t>
+    <t>0,18%</t>
   </si>
 </sst>
 </file>
@@ -2162,7 +2165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E863E4A-8F84-44CC-8E14-6BDF139F121F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2412FB1C-D965-4A04-9875-6B0FBC636A4E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2963,7 +2966,7 @@
         <v>1608</v>
       </c>
       <c r="I17" s="7">
-        <v>1729252</v>
+        <v>1729251</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>66</v>
@@ -3124,10 +3127,10 @@
         <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>279</v>
@@ -3136,13 +3139,13 @@
         <v>303670</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,13 +3160,13 @@
         <v>79992</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>85</v>
@@ -3172,13 +3175,13 @@
         <v>93996</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>154</v>
@@ -3187,13 +3190,13 @@
         <v>173988</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,13 +3211,13 @@
         <v>15926</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -3223,13 +3226,13 @@
         <v>30365</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
@@ -3238,13 +3241,13 @@
         <v>46291</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,7 +3268,7 @@
         <v>62</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3280,7 +3283,7 @@
         <v>62</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3295,7 +3298,7 @@
         <v>62</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,13 +3366,13 @@
         <v>536356</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H25" s="7">
         <v>351</v>
@@ -3378,13 +3381,13 @@
         <v>371979</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>847</v>
@@ -3393,13 +3396,13 @@
         <v>908335</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,13 +3417,13 @@
         <v>863362</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H26" s="7">
         <v>728</v>
@@ -3429,13 +3432,13 @@
         <v>791174</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>1532</v>
@@ -3444,13 +3447,13 @@
         <v>1654537</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3468,13 @@
         <v>1109341</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H27" s="7">
         <v>1036</v>
@@ -3480,13 +3483,13 @@
         <v>1117017</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M27" s="7">
         <v>2086</v>
@@ -3495,13 +3498,13 @@
         <v>2226358</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,13 +3519,13 @@
         <v>687479</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="H28" s="7">
         <v>868</v>
@@ -3531,13 +3534,13 @@
         <v>936788</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M28" s="7">
         <v>1503</v>
@@ -3546,13 +3549,13 @@
         <v>1624267</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3570,13 @@
         <v>176521</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H29" s="7">
         <v>267</v>
@@ -3582,13 +3585,13 @@
         <v>290641</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>54</v>
+        <v>205</v>
       </c>
       <c r="M29" s="7">
         <v>438</v>
@@ -3597,13 +3600,13 @@
         <v>467163</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,7 +3657,7 @@
         <v>62</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,7 +3713,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3729,7 +3732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CAB778-4419-4A14-9CD3-AE0059EFBDCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A914EE45-4EC4-47B9-9541-C6970E54EB2D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3746,7 +3749,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3853,13 +3856,13 @@
         <v>109202</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H4" s="7">
         <v>87</v>
@@ -3868,13 +3871,13 @@
         <v>92979</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M4" s="7">
         <v>194</v>
@@ -3883,13 +3886,13 @@
         <v>202181</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3907,13 @@
         <v>167404</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H5" s="7">
         <v>208</v>
@@ -3919,13 +3922,13 @@
         <v>230763</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M5" s="7">
         <v>376</v>
@@ -3934,13 +3937,13 @@
         <v>398167</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>225</v>
+        <v>146</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3958,13 @@
         <v>225181</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H6" s="7">
         <v>300</v>
@@ -3970,13 +3973,13 @@
         <v>334382</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M6" s="7">
         <v>529</v>
@@ -3985,13 +3988,13 @@
         <v>559563</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,16 +4006,16 @@
         <v>178</v>
       </c>
       <c r="D7" s="7">
-        <v>175581</v>
+        <v>175580</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H7" s="7">
         <v>221</v>
@@ -4021,13 +4024,13 @@
         <v>250169</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M7" s="7">
         <v>399</v>
@@ -4036,13 +4039,13 @@
         <v>425750</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,13 +4060,13 @@
         <v>57910</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H8" s="7">
         <v>61</v>
@@ -4072,13 +4075,13 @@
         <v>70275</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M8" s="7">
         <v>122</v>
@@ -4087,13 +4090,13 @@
         <v>128185</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,7 +4117,7 @@
         <v>62</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4129,7 +4132,7 @@
         <v>62</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4156,7 +4159,7 @@
         <v>743</v>
       </c>
       <c r="D10" s="7">
-        <v>735278</v>
+        <v>735277</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>66</v>
@@ -4212,13 +4215,13 @@
         <v>343846</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H11" s="7">
         <v>237</v>
@@ -4227,13 +4230,13 @@
         <v>246233</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M11" s="7">
         <v>554</v>
@@ -4242,13 +4245,13 @@
         <v>590079</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>118</v>
+        <v>264</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,13 +4266,13 @@
         <v>567530</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H12" s="7">
         <v>528</v>
@@ -4278,13 +4281,13 @@
         <v>552016</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M12" s="7">
         <v>1068</v>
@@ -4293,13 +4296,13 @@
         <v>1119546</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,13 +4317,13 @@
         <v>741464</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>703</v>
@@ -4329,13 +4332,13 @@
         <v>730190</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>1404</v>
@@ -4344,13 +4347,13 @@
         <v>1471653</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4368,13 @@
         <v>311647</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H14" s="7">
         <v>326</v>
@@ -4380,13 +4383,13 @@
         <v>335570</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>617</v>
@@ -4395,13 +4398,13 @@
         <v>647216</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4419,13 @@
         <v>63282</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H15" s="7">
         <v>82</v>
@@ -4431,13 +4434,13 @@
         <v>90705</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M15" s="7">
         <v>141</v>
@@ -4446,13 +4449,13 @@
         <v>153987</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,7 +4506,7 @@
         <v>62</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4574,13 @@
         <v>107478</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H18" s="7">
         <v>76</v>
@@ -4586,13 +4589,13 @@
         <v>80754</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M18" s="7">
         <v>170</v>
@@ -4601,13 +4604,13 @@
         <v>188232</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,13 +4625,13 @@
         <v>176601</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>272</v>
+        <v>140</v>
       </c>
       <c r="H19" s="7">
         <v>170</v>
@@ -4637,13 +4640,13 @@
         <v>176676</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>331</v>
@@ -4652,13 +4655,13 @@
         <v>353277</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4676,13 @@
         <v>172746</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H20" s="7">
         <v>177</v>
@@ -4688,28 +4691,28 @@
         <v>183123</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M20" s="7">
         <v>342</v>
       </c>
       <c r="N20" s="7">
-        <v>355869</v>
+        <v>355868</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4727,13 @@
         <v>75137</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H21" s="7">
         <v>81</v>
@@ -4739,13 +4742,13 @@
         <v>86047</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M21" s="7">
         <v>147</v>
@@ -4754,13 +4757,13 @@
         <v>161184</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,13 +4778,13 @@
         <v>10105</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -4790,13 +4793,13 @@
         <v>13956</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -4805,13 +4808,13 @@
         <v>24061</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,7 +4835,7 @@
         <v>62</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4847,7 +4850,7 @@
         <v>62</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -4862,7 +4865,7 @@
         <v>62</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,7 +4907,7 @@
         <v>1014</v>
       </c>
       <c r="N24" s="7">
-        <v>1082623</v>
+        <v>1082622</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>66</v>
@@ -4930,13 +4933,13 @@
         <v>560526</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H25" s="7">
         <v>400</v>
@@ -4945,13 +4948,13 @@
         <v>419966</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M25" s="7">
         <v>918</v>
@@ -4960,13 +4963,13 @@
         <v>980492</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>353</v>
+        <v>284</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,28 +4984,28 @@
         <v>911535</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H26" s="7">
         <v>906</v>
       </c>
       <c r="I26" s="7">
-        <v>959454</v>
+        <v>959455</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>32</v>
+        <v>359</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M26" s="7">
         <v>1775</v>
@@ -5011,13 +5014,13 @@
         <v>1870990</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,22 +5035,22 @@
         <v>1139390</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>363</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H27" s="7">
         <v>1180</v>
       </c>
       <c r="I27" s="7">
-        <v>1247694</v>
+        <v>1247695</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>367</v>
@@ -5083,7 +5086,7 @@
         <v>562364</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>372</v>
@@ -5137,19 +5140,19 @@
         <v>380</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>152</v>
+        <v>381</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H29" s="7">
         <v>157</v>
       </c>
       <c r="I29" s="7">
-        <v>174936</v>
+        <v>174937</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>382</v>
+        <v>106</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>383</v>
@@ -5221,7 +5224,7 @@
         <v>62</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,7 +5251,7 @@
         <v>3271</v>
       </c>
       <c r="I31" s="7">
-        <v>3473837</v>
+        <v>3473838</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>66</v>
@@ -5263,7 +5266,7 @@
         <v>6418</v>
       </c>
       <c r="N31" s="7">
-        <v>6778950</v>
+        <v>6778949</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>66</v>
@@ -5277,7 +5280,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -5296,7 +5299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163AA120-33FE-4845-A376-4D59E3022494}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CE19B1-06A8-44C9-A38D-C8A35EEB5008}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5420,13 +5423,13 @@
         <v>120762</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>240</v>
+        <v>389</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H4" s="7">
         <v>233</v>
@@ -5435,13 +5438,13 @@
         <v>131121</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M4" s="7">
         <v>384</v>
@@ -5450,13 +5453,13 @@
         <v>251883</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,13 +5474,13 @@
         <v>161172</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H5" s="7">
         <v>493</v>
@@ -5486,13 +5489,13 @@
         <v>280129</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M5" s="7">
         <v>696</v>
@@ -5501,13 +5504,13 @@
         <v>441300</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5525,13 @@
         <v>161342</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>406</v>
+        <v>270</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="H6" s="7">
         <v>433</v>
@@ -5537,13 +5540,13 @@
         <v>258182</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="M6" s="7">
         <v>639</v>
@@ -5552,13 +5555,13 @@
         <v>419524</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>91</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5573,13 +5576,13 @@
         <v>69935</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H7" s="7">
         <v>181</v>
@@ -5588,13 +5591,13 @@
         <v>119885</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>419</v>
+        <v>336</v>
       </c>
       <c r="M7" s="7">
         <v>275</v>
@@ -5603,13 +5606,13 @@
         <v>189820</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,13 +5627,13 @@
         <v>17910</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>341</v>
+        <v>420</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -5639,13 +5642,13 @@
         <v>29332</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="M8" s="7">
         <v>75</v>
@@ -5654,13 +5657,13 @@
         <v>47242</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,13 +5678,13 @@
         <v>2972</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -5690,13 +5693,13 @@
         <v>3960</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>435</v>
+        <v>348</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -5705,13 +5708,13 @@
         <v>6932</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>163</v>
+        <v>434</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,13 +5782,13 @@
         <v>672060</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H11" s="7">
         <v>622</v>
@@ -5794,13 +5797,13 @@
         <v>453799</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>443</v>
+        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="M11" s="7">
         <v>1184</v>
@@ -5809,13 +5812,13 @@
         <v>1125859</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5833,13 @@
         <v>779110</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H12" s="7">
         <v>1042</v>
@@ -5845,13 +5848,13 @@
         <v>773566</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="M12" s="7">
         <v>1768</v>
@@ -5860,13 +5863,13 @@
         <v>1552676</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>279</v>
+        <v>448</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,28 +5884,28 @@
         <v>529116</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>453</v>
       </c>
       <c r="H13" s="7">
         <v>801</v>
       </c>
       <c r="I13" s="7">
-        <v>696419</v>
+        <v>696418</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M13" s="7">
         <v>1325</v>
@@ -5911,13 +5914,13 @@
         <v>1225534</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5932,28 +5935,28 @@
         <v>141924</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>160</v>
+        <v>460</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H14" s="7">
         <v>353</v>
       </c>
       <c r="I14" s="7">
-        <v>249589</v>
+        <v>249588</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M14" s="7">
         <v>490</v>
@@ -5962,13 +5965,13 @@
         <v>391512</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5983,13 +5986,13 @@
         <v>30917</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="H15" s="7">
         <v>87</v>
@@ -5998,13 +6001,13 @@
         <v>62736</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="M15" s="7">
         <v>121</v>
@@ -6013,13 +6016,13 @@
         <v>93653</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,13 +6037,13 @@
         <v>4141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>115</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -6049,10 +6052,10 @@
         <v>4325</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>479</v>
@@ -6064,13 +6067,13 @@
         <v>8467</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,7 +6100,7 @@
         <v>2911</v>
       </c>
       <c r="I17" s="7">
-        <v>2240434</v>
+        <v>2240433</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>66</v>
@@ -6138,13 +6141,13 @@
         <v>200313</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="H18" s="7">
         <v>231</v>
@@ -6153,13 +6156,13 @@
         <v>173324</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="M18" s="7">
         <v>420</v>
@@ -6168,13 +6171,13 @@
         <v>373637</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,13 +6192,13 @@
         <v>255386</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="H19" s="7">
         <v>353</v>
@@ -6204,13 +6207,13 @@
         <v>248971</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="M19" s="7">
         <v>619</v>
@@ -6219,10 +6222,10 @@
         <v>504357</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>498</v>
@@ -6255,7 +6258,7 @@
         <v>187196</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>502</v>
@@ -6270,13 +6273,13 @@
         <v>347743</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>504</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,13 +6294,13 @@
         <v>44651</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H21" s="7">
         <v>113</v>
@@ -6306,13 +6309,13 @@
         <v>83106</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>420</v>
+        <v>512</v>
       </c>
       <c r="M21" s="7">
         <v>162</v>
@@ -6321,13 +6324,13 @@
         <v>127757</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6342,13 +6345,13 @@
         <v>7660</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -6357,13 +6360,13 @@
         <v>18314</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>386</v>
+        <v>521</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
@@ -6372,13 +6375,13 @@
         <v>25974</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>521</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6396,13 @@
         <v>2684</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>523</v>
+        <v>114</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -6408,13 +6411,13 @@
         <v>2974</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>114</v>
+        <v>527</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -6423,13 +6426,13 @@
         <v>5657</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>435</v>
+        <v>530</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6497,13 +6500,13 @@
         <v>993134</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>534</v>
       </c>
       <c r="H25" s="7">
         <v>1086</v>
@@ -6512,13 +6515,13 @@
         <v>758244</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="M25" s="7">
         <v>1988</v>
@@ -6527,13 +6530,13 @@
         <v>1751379</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>390</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,13 +6551,13 @@
         <v>1195668</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>537</v>
+        <v>277</v>
       </c>
       <c r="H26" s="7">
         <v>1888</v>
@@ -6563,13 +6566,13 @@
         <v>1302666</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="M26" s="7">
         <v>3083</v>
@@ -6578,13 +6581,13 @@
         <v>2498334</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>542</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>543</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,13 +6602,13 @@
         <v>851004</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H27" s="7">
         <v>1511</v>
@@ -6614,13 +6617,13 @@
         <v>1141796</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M27" s="7">
         <v>2404</v>
@@ -6632,10 +6635,10 @@
         <v>41</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6650,13 +6653,13 @@
         <v>256509</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>552</v>
+        <v>216</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="H28" s="7">
         <v>647</v>
@@ -6665,13 +6668,13 @@
         <v>452580</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M28" s="7">
         <v>927</v>
@@ -6680,13 +6683,13 @@
         <v>709089</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6704,10 +6707,10 @@
         <v>559</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="H29" s="7">
         <v>164</v>
@@ -6716,13 +6719,13 @@
         <v>110383</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="M29" s="7">
         <v>231</v>
@@ -6755,10 +6758,10 @@
         <v>567</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>64</v>
+        <v>568</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
@@ -6767,13 +6770,13 @@
         <v>11259</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>435</v>
+        <v>530</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>570</v>
+        <v>431</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
@@ -6785,10 +6788,10 @@
         <v>567</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>346</v>
+        <v>571</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>161</v>
+        <v>479</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6844,7 +6847,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15649880-4128-436E-95CE-03F122C78CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A778E47-9F8B-43EB-80DF-E219F22DA131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DD718288-12D5-4838-9631-52ED652963D2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6634B95C-8C23-4B87-8808-3FFA3B9378A6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="576">
   <si>
     <t>Población según la cantidad de agua que consumen al día en 2012 (Tasa respuesta: 98,62%)</t>
   </si>
@@ -1207,553 +1207,565 @@
     <t>Población según la cantidad de agua que consumen al día en 2023 (Tasa respuesta: 99,31%)</t>
   </si>
   <si>
-    <t>22,61%</t>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
   </si>
   <si>
     <t>19,26%</t>
   </si>
   <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
   </si>
   <si>
     <t>36,35%</t>
   </si>
   <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
   </si>
   <si>
     <t>7,98%</t>
   </si>
   <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>0,46%</t>
   </si>
 </sst>
 </file>
@@ -2165,7 +2177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2412FB1C-D965-4A04-9875-6B0FBC636A4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E3943B-3EB6-41CC-8B30-801BCF2926FA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3444,7 +3456,7 @@
         <v>1532</v>
       </c>
       <c r="N26" s="7">
-        <v>1654537</v>
+        <v>1654536</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>180</v>
@@ -3597,7 +3609,7 @@
         <v>438</v>
       </c>
       <c r="N29" s="7">
-        <v>467163</v>
+        <v>467162</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>206</v>
@@ -3669,7 +3681,7 @@
         <v>3156</v>
       </c>
       <c r="D31" s="7">
-        <v>3373060</v>
+        <v>3373059</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>66</v>
@@ -3699,7 +3711,7 @@
         <v>6406</v>
       </c>
       <c r="N31" s="7">
-        <v>6880660</v>
+        <v>6880659</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>66</v>
@@ -3732,7 +3744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A914EE45-4EC4-47B9-9541-C6970E54EB2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C91254-AACD-4F53-AEEB-181AF588D8E5}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4703,7 +4715,7 @@
         <v>342</v>
       </c>
       <c r="N20" s="7">
-        <v>355868</v>
+        <v>355869</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>325</v>
@@ -4907,7 +4919,7 @@
         <v>1014</v>
       </c>
       <c r="N24" s="7">
-        <v>1082622</v>
+        <v>1082623</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>66</v>
@@ -4996,7 +5008,7 @@
         <v>906</v>
       </c>
       <c r="I26" s="7">
-        <v>959455</v>
+        <v>959454</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>359</v>
@@ -5047,7 +5059,7 @@
         <v>1180</v>
       </c>
       <c r="I27" s="7">
-        <v>1247695</v>
+        <v>1247694</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>321</v>
@@ -5149,7 +5161,7 @@
         <v>157</v>
       </c>
       <c r="I29" s="7">
-        <v>174937</v>
+        <v>174936</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>106</v>
@@ -5251,7 +5263,7 @@
         <v>3271</v>
       </c>
       <c r="I31" s="7">
-        <v>3473838</v>
+        <v>3473837</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>66</v>
@@ -5299,7 +5311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CE19B1-06A8-44C9-A38D-C8A35EEB5008}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86ACEBEB-09F2-4F0E-A2C9-FDC4FF298798}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5420,7 +5432,7 @@
         <v>151</v>
       </c>
       <c r="D4" s="7">
-        <v>120762</v>
+        <v>116956</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>389</v>
@@ -5435,31 +5447,31 @@
         <v>233</v>
       </c>
       <c r="I4" s="7">
-        <v>131121</v>
+        <v>119340</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>76</v>
+        <v>392</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>73</v>
+        <v>393</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M4" s="7">
         <v>384</v>
       </c>
       <c r="N4" s="7">
-        <v>251883</v>
+        <v>236296</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,46 +5483,46 @@
         <v>203</v>
       </c>
       <c r="D5" s="7">
-        <v>161172</v>
+        <v>152156</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H5" s="7">
         <v>493</v>
       </c>
       <c r="I5" s="7">
-        <v>280129</v>
+        <v>252275</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M5" s="7">
         <v>696</v>
       </c>
       <c r="N5" s="7">
-        <v>441300</v>
+        <v>404432</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>89</v>
+        <v>405</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,46 +5534,46 @@
         <v>206</v>
       </c>
       <c r="D6" s="7">
-        <v>161342</v>
+        <v>150624</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>270</v>
+        <v>407</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="H6" s="7">
         <v>433</v>
       </c>
       <c r="I6" s="7">
-        <v>258182</v>
+        <v>232196</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M6" s="7">
         <v>639</v>
       </c>
       <c r="N6" s="7">
-        <v>419524</v>
+        <v>382820</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5573,46 +5585,46 @@
         <v>94</v>
       </c>
       <c r="D7" s="7">
-        <v>69935</v>
+        <v>67707</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>411</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="H7" s="7">
         <v>181</v>
       </c>
       <c r="I7" s="7">
-        <v>119885</v>
+        <v>108462</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>336</v>
+        <v>419</v>
       </c>
       <c r="M7" s="7">
         <v>275</v>
       </c>
       <c r="N7" s="7">
-        <v>189820</v>
+        <v>176169</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,46 +5636,46 @@
         <v>24</v>
       </c>
       <c r="D8" s="7">
-        <v>17910</v>
+        <v>17472</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
       </c>
       <c r="I8" s="7">
-        <v>29332</v>
+        <v>27184</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>422</v>
+        <v>160</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="M8" s="7">
         <v>75</v>
       </c>
       <c r="N8" s="7">
-        <v>47242</v>
+        <v>44656</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,46 +5687,46 @@
         <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>2972</v>
+        <v>2863</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
       </c>
       <c r="I9" s="7">
-        <v>3960</v>
+        <v>3659</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>348</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
       </c>
       <c r="N9" s="7">
-        <v>6932</v>
+        <v>6522</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,7 +5738,7 @@
         <v>681</v>
       </c>
       <c r="D10" s="7">
-        <v>534092</v>
+        <v>507779</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>66</v>
@@ -5741,7 +5753,7 @@
         <v>1398</v>
       </c>
       <c r="I10" s="7">
-        <v>822608</v>
+        <v>743116</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>66</v>
@@ -5756,7 +5768,7 @@
         <v>2079</v>
       </c>
       <c r="N10" s="7">
-        <v>1356700</v>
+        <v>1250895</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -5779,46 +5791,46 @@
         <v>562</v>
       </c>
       <c r="D11" s="7">
-        <v>672060</v>
+        <v>860272</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="H11" s="7">
         <v>622</v>
       </c>
       <c r="I11" s="7">
-        <v>453799</v>
+        <v>418098</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>443</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="M11" s="7">
         <v>1184</v>
       </c>
       <c r="N11" s="7">
-        <v>1125859</v>
+        <v>1278370</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>445</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,46 +5842,46 @@
         <v>726</v>
       </c>
       <c r="D12" s="7">
-        <v>779110</v>
+        <v>748326</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>443</v>
+        <v>224</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="H12" s="7">
         <v>1042</v>
       </c>
       <c r="I12" s="7">
-        <v>773566</v>
+        <v>720313</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="M12" s="7">
         <v>1768</v>
       </c>
       <c r="N12" s="7">
-        <v>1552676</v>
+        <v>1468639</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,46 +5893,46 @@
         <v>524</v>
       </c>
       <c r="D13" s="7">
-        <v>529116</v>
+        <v>502915</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="H13" s="7">
         <v>801</v>
       </c>
       <c r="I13" s="7">
-        <v>696418</v>
+        <v>793472</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="M13" s="7">
         <v>1325</v>
       </c>
       <c r="N13" s="7">
-        <v>1225534</v>
+        <v>1296387</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5932,46 +5944,46 @@
         <v>137</v>
       </c>
       <c r="D14" s="7">
-        <v>141924</v>
+        <v>139259</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="H14" s="7">
         <v>353</v>
       </c>
       <c r="I14" s="7">
-        <v>249588</v>
+        <v>234967</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>468</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="M14" s="7">
         <v>490</v>
       </c>
       <c r="N14" s="7">
-        <v>391512</v>
+        <v>374226</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>465</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5983,46 +5995,46 @@
         <v>34</v>
       </c>
       <c r="D15" s="7">
-        <v>30917</v>
+        <v>30493</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="H15" s="7">
         <v>87</v>
       </c>
       <c r="I15" s="7">
-        <v>62736</v>
+        <v>58734</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="M15" s="7">
         <v>121</v>
       </c>
       <c r="N15" s="7">
-        <v>93653</v>
+        <v>89227</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,46 +6046,46 @@
         <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>4141</v>
+        <v>4116</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>348</v>
+        <v>482</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>115</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>4325</v>
+        <v>4029</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>348</v>
+        <v>482</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>478</v>
+        <v>115</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
       </c>
       <c r="N16" s="7">
-        <v>8467</v>
+        <v>8145</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>348</v>
+        <v>482</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,7 +6097,7 @@
         <v>1988</v>
       </c>
       <c r="D17" s="7">
-        <v>2157268</v>
+        <v>2285381</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>66</v>
@@ -6100,7 +6112,7 @@
         <v>2911</v>
       </c>
       <c r="I17" s="7">
-        <v>2240433</v>
+        <v>2229612</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>66</v>
@@ -6115,7 +6127,7 @@
         <v>4899</v>
       </c>
       <c r="N17" s="7">
-        <v>4397701</v>
+        <v>4514994</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>66</v>
@@ -6138,46 +6150,46 @@
         <v>189</v>
       </c>
       <c r="D18" s="7">
-        <v>200313</v>
+        <v>191788</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="H18" s="7">
         <v>231</v>
       </c>
       <c r="I18" s="7">
-        <v>173324</v>
+        <v>162218</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="M18" s="7">
         <v>420</v>
       </c>
       <c r="N18" s="7">
-        <v>373637</v>
+        <v>354006</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>487</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,46 +6201,46 @@
         <v>266</v>
       </c>
       <c r="D19" s="7">
-        <v>255386</v>
+        <v>241992</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="H19" s="7">
         <v>353</v>
       </c>
       <c r="I19" s="7">
-        <v>248971</v>
+        <v>228144</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="M19" s="7">
         <v>619</v>
       </c>
       <c r="N19" s="7">
-        <v>504357</v>
+        <v>470136</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>496</v>
+        <v>455</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,46 +6252,46 @@
         <v>163</v>
       </c>
       <c r="D20" s="7">
-        <v>160546</v>
+        <v>157776</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="H20" s="7">
         <v>277</v>
       </c>
       <c r="I20" s="7">
-        <v>187196</v>
+        <v>172722</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>360</v>
+        <v>505</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="M20" s="7">
         <v>440</v>
       </c>
       <c r="N20" s="7">
-        <v>347743</v>
+        <v>330497</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>506</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,46 +6303,46 @@
         <v>49</v>
       </c>
       <c r="D21" s="7">
-        <v>44651</v>
+        <v>43141</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>507</v>
+        <v>108</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H21" s="7">
         <v>113</v>
       </c>
       <c r="I21" s="7">
-        <v>83106</v>
+        <v>77340</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M21" s="7">
         <v>162</v>
       </c>
       <c r="N21" s="7">
-        <v>127757</v>
+        <v>120481</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>514</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6342,13 +6354,13 @@
         <v>9</v>
       </c>
       <c r="D22" s="7">
-        <v>7660</v>
+        <v>7477</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>517</v>
+        <v>436</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>518</v>
@@ -6357,31 +6369,31 @@
         <v>26</v>
       </c>
       <c r="I22" s="7">
-        <v>18314</v>
+        <v>17341</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="M22" s="7">
         <v>35</v>
       </c>
       <c r="N22" s="7">
-        <v>25974</v>
+        <v>24818</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,46 +6405,46 @@
         <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>2684</v>
+        <v>2733</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
       </c>
       <c r="I23" s="7">
-        <v>2974</v>
+        <v>2698</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
       </c>
       <c r="N23" s="7">
-        <v>5657</v>
+        <v>5430</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>529</v>
+        <v>483</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,7 +6456,7 @@
         <v>679</v>
       </c>
       <c r="D24" s="7">
-        <v>671239</v>
+        <v>644906</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>66</v>
@@ -6459,7 +6471,7 @@
         <v>1004</v>
       </c>
       <c r="I24" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>66</v>
@@ -6474,7 +6486,7 @@
         <v>1683</v>
       </c>
       <c r="N24" s="7">
-        <v>1385125</v>
+        <v>1305369</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>66</v>
@@ -6497,46 +6509,46 @@
         <v>902</v>
       </c>
       <c r="D25" s="7">
-        <v>993134</v>
+        <v>1169016</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H25" s="7">
         <v>1086</v>
       </c>
       <c r="I25" s="7">
-        <v>758244</v>
+        <v>699656</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="M25" s="7">
         <v>1988</v>
       </c>
       <c r="N25" s="7">
-        <v>1751379</v>
+        <v>1868672</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>451</v>
+        <v>535</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>272</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,46 +6560,46 @@
         <v>1195</v>
       </c>
       <c r="D26" s="7">
-        <v>1195668</v>
+        <v>1142474</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H26" s="7">
         <v>1888</v>
       </c>
       <c r="I26" s="7">
-        <v>1302666</v>
+        <v>1200733</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="M26" s="7">
         <v>3083</v>
       </c>
       <c r="N26" s="7">
-        <v>2498334</v>
+        <v>2343207</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>371</v>
+        <v>545</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,46 +6611,46 @@
         <v>893</v>
       </c>
       <c r="D27" s="7">
-        <v>851004</v>
+        <v>811315</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H27" s="7">
         <v>1511</v>
       </c>
       <c r="I27" s="7">
-        <v>1141796</v>
+        <v>1198390</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M27" s="7">
         <v>2404</v>
       </c>
       <c r="N27" s="7">
-        <v>1992800</v>
+        <v>2009704</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>41</v>
+        <v>552</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>551</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6650,46 +6662,46 @@
         <v>280</v>
       </c>
       <c r="D28" s="7">
-        <v>256509</v>
+        <v>250107</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>216</v>
+        <v>554</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>507</v>
+        <v>555</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="H28" s="7">
         <v>647</v>
       </c>
       <c r="I28" s="7">
-        <v>452580</v>
+        <v>420769</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>555</v>
+        <v>16</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M28" s="7">
         <v>927</v>
       </c>
       <c r="N28" s="7">
-        <v>709089</v>
+        <v>670876</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>248</v>
+        <v>559</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6701,46 +6713,46 @@
         <v>67</v>
       </c>
       <c r="D29" s="7">
-        <v>56486</v>
+        <v>55442</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>525</v>
+        <v>563</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="H29" s="7">
         <v>164</v>
       </c>
       <c r="I29" s="7">
-        <v>110383</v>
+        <v>103259</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="M29" s="7">
         <v>231</v>
       </c>
       <c r="N29" s="7">
-        <v>166869</v>
+        <v>158700</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6752,46 +6764,46 @@
         <v>11</v>
       </c>
       <c r="D30" s="7">
-        <v>9797</v>
+        <v>9712</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
       </c>
       <c r="I30" s="7">
-        <v>11259</v>
+        <v>10386</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>530</v>
+        <v>64</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>431</v>
+        <v>575</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
       </c>
       <c r="N30" s="7">
-        <v>21055</v>
+        <v>20098</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>571</v>
+        <v>527</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>479</v>
+        <v>525</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6803,7 +6815,7 @@
         <v>3348</v>
       </c>
       <c r="D31" s="7">
-        <v>3362598</v>
+        <v>3438066</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>66</v>
@@ -6818,7 +6830,7 @@
         <v>5313</v>
       </c>
       <c r="I31" s="7">
-        <v>3776928</v>
+        <v>3633192</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>66</v>
@@ -6833,7 +6845,7 @@
         <v>8661</v>
       </c>
       <c r="N31" s="7">
-        <v>7139526</v>
+        <v>7071257</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>66</v>
